--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly/Activity/ActivityData_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly\Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152302D-82CF-42C8-83B7-7E86CCB10233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDAA375-5E98-437B-828E-301D7CE856EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xxInstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>44681</v>
       </c>
       <c r="B2" s="10">
-        <v>44681</v>
+        <v>44671</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>17</v>
@@ -942,7 +942,7 @@
         <v>44681</v>
       </c>
       <c r="B3" s="10">
-        <v>44681</v>
+        <v>44671</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>63</v>
